--- a/Trait Data Dictionary.xlsx
+++ b/Trait Data Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CDDEP/Downloads/OPV Host Prediction/Data Sources/Traits/COMBINE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CDDEP/Downloads/OPV Host Prediction/Data sources (temp)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4256640-FC85-F144-8721-6431BC89D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A33E09-44BF-A44B-A464-4928CC05D201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="25140" windowHeight="17540" xr2:uid="{D2077289-E4BA-B440-9E3C-1075A9BCD848}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16220" windowHeight="17540" xr2:uid="{D2077289-E4BA-B440-9E3C-1075A9BCD848}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecological" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="282">
   <si>
     <t>COMBINE</t>
   </si>
@@ -779,6 +779,108 @@
   </si>
   <si>
     <t>Number of prevalent (≥ 20%) EltonTraits dietary categories consumed</t>
+  </si>
+  <si>
+    <t>TNFR_truncated</t>
+  </si>
+  <si>
+    <t>TNFR_presence</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>calculated; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>IUCN; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>Botero et al. (2013); NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>PHYLACINE; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>NA; calculated; split from [species name]</t>
+  </si>
+  <si>
+    <t>NA; IUCN; split from [species name]</t>
+  </si>
+  <si>
+    <t>IUCN; PHYLACINE; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>EltonTraits; PanTHERIA; imputed; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>EltonTraits; imputed; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>MammalDIET2; PanTHERIA; imputed; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>EltonTraits; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>PHYLACINE; NA; imputed; split from [species name]</t>
+  </si>
+  <si>
+    <t>PanTHERIA; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>NA; PanTHERIA; split from [species name]</t>
+  </si>
+  <si>
+    <t>imputed; PanTHERIA; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>Heldstab et al. (2018); imputed; Buckley et al. (2018); Botero et al. (2013); Turbill et al. (2011); marine; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>PanTHERIA; NA; TetraDENSITY; split from [species name]</t>
+  </si>
+  <si>
+    <t>calculated; imputed; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>Pacifici et al. (2013); imputed; IUCN; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>Amniotes; NA; PanTHERIA; split from [species name]</t>
+  </si>
+  <si>
+    <t>Amniotes; imputed; AnAge; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>Amniotes; NA; AnAge; PanTHERIA; split from [species name]</t>
+  </si>
+  <si>
+    <t>Amniotes; imputed; NA; AnAge; split from [species name]</t>
+  </si>
+  <si>
+    <t>Amniotes; imputed; NA; ; AnAge; split from [species name]</t>
+  </si>
+  <si>
+    <t>Pacifici et al. (2013); calculated; imputed; PanTHERIA; NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>Amniotes; NA; AnAge; split from [species name]</t>
+  </si>
+  <si>
+    <t>PanTHERIA; NA; mean of female and male (Amniotes); mean of female and undefined sex (Amniotes); female maturity (Amniotes); mean of female, male and undefined (Amniotes); split from [species name]</t>
+  </si>
+  <si>
+    <t>Amniotes; imputed; NA; AnAge; Pacifici et al. (2013); split from [species name]</t>
+  </si>
+  <si>
+    <t>Amniotes; imputed; NA; mean of female and female head body length (Amniotes); female head body length maturity (Amniotes); undefined sex head body length (Amniotes); split from [species name]</t>
+  </si>
+  <si>
+    <t>Tsuboi et al. (2018); imputed; Heldstab et al. (2018); NA; split from [species name]</t>
+  </si>
+  <si>
+    <t>Amniotes; AnAge; NA; Pacifici et al. (2013); PHYLACINE; Smith et al. (2003) (EltonTraits); split from [species name]</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84143038-2A8F-6844-8425-3E01F5CA1EA5}">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,13 +1299,12 @@
     <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="67.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>129</v>
       </c>
@@ -1222,8 +1323,11 @@
       <c r="F1" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
@@ -1242,12 +1346,12 @@
       <c r="F2" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
@@ -1266,13 +1370,12 @@
       <c r="F3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
@@ -1291,13 +1394,12 @@
       <c r="F4" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
@@ -1316,13 +1418,12 @@
       <c r="F5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -1341,13 +1442,12 @@
       <c r="F6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -1366,13 +1466,12 @@
       <c r="F7" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
@@ -1391,13 +1490,12 @@
       <c r="F8" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
@@ -1416,13 +1514,12 @@
       <c r="F9" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
@@ -1441,13 +1538,12 @@
       <c r="F10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>68</v>
       </c>
@@ -1466,13 +1562,12 @@
       <c r="F11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>69</v>
       </c>
@@ -1491,13 +1586,12 @@
       <c r="F12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>70</v>
       </c>
@@ -1516,13 +1610,12 @@
       <c r="F13" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
@@ -1541,13 +1634,12 @@
       <c r="F14" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>72</v>
       </c>
@@ -1566,13 +1658,12 @@
       <c r="F15" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>73</v>
       </c>
@@ -1591,13 +1682,12 @@
       <c r="F16" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>74</v>
       </c>
@@ -1616,13 +1706,12 @@
       <c r="F17" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
@@ -1641,13 +1730,12 @@
       <c r="F18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>76</v>
       </c>
@@ -1666,13 +1754,12 @@
       <c r="F19" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
@@ -1691,13 +1778,12 @@
       <c r="F20" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="I20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -1716,13 +1802,12 @@
       <c r="F21" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -1741,13 +1826,12 @@
       <c r="F22" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="I22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
@@ -1766,13 +1850,12 @@
       <c r="F23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="I23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>81</v>
       </c>
@@ -1791,13 +1874,12 @@
       <c r="F24" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="I24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>82</v>
       </c>
@@ -1816,13 +1898,12 @@
       <c r="F25" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="I25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>83</v>
       </c>
@@ -1841,13 +1922,12 @@
       <c r="F26" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="I26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>84</v>
       </c>
@@ -1866,13 +1946,12 @@
       <c r="F27" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>85</v>
       </c>
@@ -1891,13 +1970,12 @@
       <c r="F28" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="I28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>86</v>
       </c>
@@ -1916,13 +1994,12 @@
       <c r="F29" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="I29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>87</v>
       </c>
@@ -1941,13 +2018,12 @@
       <c r="F30" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="I30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>88</v>
       </c>
@@ -1966,13 +2042,12 @@
       <c r="F31" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>136</v>
       </c>
@@ -1991,11 +2066,11 @@
       <c r="F32" s="6" t="s">
         <v>160</v>
       </c>
+      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
@@ -2317,7 +2392,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>153</v>
       </c>
@@ -2337,7 +2412,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>154</v>
       </c>
@@ -2357,7 +2432,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>155</v>
       </c>
@@ -2377,7 +2452,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>156</v>
       </c>
@@ -2397,7 +2472,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>157</v>
       </c>
@@ -2417,7 +2492,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>158</v>
       </c>
@@ -2437,8 +2512,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -2456,8 +2531,11 @@
       <c r="F55" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>2</v>
       </c>
@@ -2476,9 +2554,12 @@
       <c r="F56" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="G56" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2496,8 +2577,11 @@
       <c r="F57" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -2516,8 +2600,11 @@
       <c r="F58" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>5</v>
       </c>
@@ -2536,8 +2623,11 @@
       <c r="F59" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>6</v>
       </c>
@@ -2556,8 +2646,11 @@
       <c r="F60" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
@@ -2576,8 +2669,11 @@
       <c r="F61" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>8</v>
       </c>
@@ -2596,9 +2692,12 @@
       <c r="F62" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+      <c r="G62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -2616,9 +2715,12 @@
       <c r="F63" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
+      <c r="G63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -2636,9 +2738,12 @@
       <c r="F64" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="G64" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -2656,9 +2761,12 @@
       <c r="F65" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+      <c r="G65" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -2676,9 +2784,12 @@
       <c r="F66" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+      <c r="G66" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -2696,9 +2807,12 @@
       <c r="F67" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+      <c r="G67" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -2716,8 +2830,11 @@
       <c r="F68" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>15</v>
       </c>
@@ -2736,9 +2853,12 @@
       <c r="F69" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+      <c r="G69" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -2756,9 +2876,12 @@
       <c r="F70" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+      <c r="G70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -2776,8 +2899,11 @@
       <c r="F71" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>18</v>
       </c>
@@ -2796,8 +2922,11 @@
       <c r="F72" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>19</v>
       </c>
@@ -2816,9 +2945,12 @@
       <c r="F73" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
+      <c r="G73" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -2836,8 +2968,11 @@
       <c r="F74" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>21</v>
       </c>
@@ -2856,8 +2991,11 @@
       <c r="F75" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>22</v>
       </c>
@@ -2876,9 +3014,12 @@
       <c r="F76" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
+      <c r="G76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -2896,9 +3037,12 @@
       <c r="F77" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
+      <c r="G77" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -2916,8 +3060,11 @@
       <c r="F78" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>25</v>
       </c>
@@ -2936,8 +3083,11 @@
       <c r="F79" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>26</v>
       </c>
@@ -2956,8 +3106,11 @@
       <c r="F80" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>27</v>
       </c>
@@ -2976,8 +3129,11 @@
       <c r="F81" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>28</v>
       </c>
@@ -2996,8 +3152,11 @@
       <c r="F82" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>29</v>
       </c>
@@ -3016,8 +3175,11 @@
       <c r="F83" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>30</v>
       </c>
@@ -3036,8 +3198,11 @@
       <c r="F84" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>31</v>
       </c>
@@ -3056,8 +3221,11 @@
       <c r="F85" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>32</v>
       </c>
@@ -3076,8 +3244,11 @@
       <c r="F86" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>33</v>
       </c>
@@ -3096,8 +3267,11 @@
       <c r="F87" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>34</v>
       </c>
@@ -3116,8 +3290,11 @@
       <c r="F88" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>35</v>
       </c>
@@ -3136,8 +3313,11 @@
       <c r="F89" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>36</v>
       </c>
@@ -3156,8 +3336,11 @@
       <c r="F90" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>37</v>
       </c>
@@ -3176,8 +3359,11 @@
       <c r="F91" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>38</v>
       </c>
@@ -3196,8 +3382,11 @@
       <c r="F92" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>39</v>
       </c>
@@ -3216,8 +3405,11 @@
       <c r="F93" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>40</v>
       </c>
@@ -3236,9 +3428,12 @@
       <c r="F94" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
+      <c r="G94" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -3256,8 +3451,11 @@
       <c r="F95" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>42</v>
       </c>
@@ -3276,8 +3474,11 @@
       <c r="F96" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>43</v>
       </c>
@@ -3296,8 +3497,11 @@
       <c r="F97" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>44</v>
       </c>
@@ -3316,8 +3520,11 @@
       <c r="F98" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>45</v>
       </c>
@@ -3336,8 +3543,11 @@
       <c r="F99" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>46</v>
       </c>
@@ -3356,8 +3566,11 @@
       <c r="F100" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>47</v>
       </c>
@@ -3376,8 +3589,11 @@
       <c r="F101" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>48</v>
       </c>
@@ -3396,8 +3612,11 @@
       <c r="F102" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>49</v>
       </c>
@@ -3416,8 +3635,11 @@
       <c r="F103" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>50</v>
       </c>
@@ -3436,8 +3658,11 @@
       <c r="F104" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>51</v>
       </c>
@@ -3456,8 +3681,11 @@
       <c r="F105" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>52</v>
       </c>
@@ -3476,8 +3704,11 @@
       <c r="F106" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>53</v>
       </c>
@@ -3496,9 +3727,12 @@
       <c r="F107" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
+      <c r="G107" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -3516,17 +3750,20 @@
       <c r="F108" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C112" s="1"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
@@ -3542,10 +3779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA824DA-7C98-3B47-85AD-D1F7BC7A0732}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3570,6 +3807,16 @@
         <v>159</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
